--- a/Consumer/Kering.xlsx
+++ b/Consumer/Kering.xlsx
@@ -5,30 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F775B06B-0B99-4F4A-A284-C425492D2DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E65D8-40A5-874F-89F5-2FBF498AC748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$C$19:$V$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$C$3:$V$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$C$106:$V$106</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106:$B$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19:$B$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3:$B$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$C$106:$V$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$C$19:$V$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$C$3:$V$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -971,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1040,6 +1008,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2384,9 +2370,9 @@
     <v>Powered by Refinitiv</v>
     <v>603.6</v>
     <v>427.55</v>
-    <v>1.0018</v>
-    <v>1.9</v>
-    <v>3.2979999999999997E-3</v>
+    <v>1.0293000000000001</v>
+    <v>6</v>
+    <v>1.1001E-2</v>
     <v>EUR</v>
     <v>Kering SA is a France-based luxury group. The Group manages the development of a series of renowned Houses in Fashion, Leather Goods and Jewelry: Gucci, Saint Laurent, Bottega Veneta, Balenciaga, Alexander McQueen, Brioni, Boucheron, Pomellato, DoDo, Qeelin, as well as Kering Eyewear. It manufactures and sell, mostly through managed retail stores, an array of products, including leather goods, apparel, accessories, footwear, jewelry among others, for man, woman and child. The Group is active globally.</v>
     <v>47227</v>
@@ -2394,24 +2380,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>40 rue de Sevres, PARIS, ILE-DE-FRANCE, 75007 FR</v>
-    <v>578</v>
+    <v>555.4</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45037.666666666664</v>
+    <v>45061.666666666664</v>
     <v>0</v>
-    <v>566.9</v>
-    <v>71712910000</v>
+    <v>543.79999999999995</v>
+    <v>67668200000</v>
     <v>Kering SA</v>
     <v>Kering SA</v>
-    <v>572.20000000000005</v>
-    <v>19.6449</v>
-    <v>576.1</v>
-    <v>578</v>
+    <v>547.70000000000005</v>
+    <v>18.802600000000002</v>
+    <v>545.4</v>
+    <v>551.4</v>
     <v>124070800</v>
     <v>KER</v>
     <v>Kering SA (XPAR:KER)</v>
-    <v>162697</v>
-    <v>181540</v>
+    <v>110479</v>
+    <v>168630</v>
     <v>1955</v>
   </rv>
   <rv s="2">
@@ -2979,10 +2965,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB137" sqref="AB137"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3271,7 +3257,7 @@
         <v>-0.26626522444832668</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AB4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AA4" si="0">(F3/E3)-1</f>
         <v>9.2988173840602428E-3</v>
       </c>
       <c r="G4" s="15">
@@ -3684,7 +3670,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:W9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:V9" si="1">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
@@ -4017,7 +4003,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:W13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:V13" si="2">C12/C3</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
@@ -4334,15 +4320,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>3.5238027615350598</v>
+        <v>3.3250552798388284</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>19.843085224128391</v>
+        <v>18.723907028223575</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>22.361368880573746</v>
+        <v>21.100155908949173</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -4574,7 +4560,7 @@
         <v>-0.35080983273754363</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:W20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:V20" si="3">(F19/E19)-1</f>
         <v>0.11318830727396323</v>
       </c>
       <c r="G20" s="15">
@@ -5204,7 +5190,7 @@
         <v>-0.44257675864749324</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:W29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="4">(F28/E28)-1</f>
         <v>0.27610249259194708</v>
       </c>
       <c r="G29" s="15">
@@ -5622,7 +5608,7 @@
         <v>3.0625933859402876E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:W35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="5">(D34-C34)/C34</f>
         <v>3.8393250270509098E-2</v>
       </c>
       <c r="E35" s="22">
@@ -8695,7 +8681,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:W80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:V80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -8982,10 +8968,10 @@
       <c r="V83" s="1">
         <v>-1015000000</v>
       </c>
-      <c r="AC83" s="33" t="s">
+      <c r="AC83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AD83" s="34"/>
+      <c r="AD83" s="62"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9054,10 +9040,10 @@
       <c r="V84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC84" s="35" t="s">
+      <c r="AC84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AD84" s="36"/>
+      <c r="AD84" s="64"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9351,10 +9337,10 @@
       <c r="V88" s="1">
         <v>-1071000000</v>
       </c>
-      <c r="AC88" s="37" t="s">
+      <c r="AC88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AD88" s="38">
+      <c r="AD88" s="34">
         <f>AD85/(AD86+AD87)</f>
         <v>1.6590284142988083E-2</v>
       </c>
@@ -9364,7 +9350,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:W89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:V89" si="7">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
@@ -9597,10 +9583,10 @@
       <c r="V91" s="1">
         <v>-235000000</v>
       </c>
-      <c r="AC91" s="37" t="s">
+      <c r="AC91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AD91" s="38">
+      <c r="AD91" s="34">
         <f>AD89/AD90</f>
         <v>0.2765335929892892</v>
       </c>
@@ -9672,10 +9658,10 @@
       <c r="V92" s="1">
         <v>115000000</v>
       </c>
-      <c r="AC92" s="39" t="s">
+      <c r="AC92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AD92" s="40">
+      <c r="AD92" s="36">
         <f>AD88*(1-AD91)</f>
         <v>1.200251326021436E-2</v>
       </c>
@@ -9747,10 +9733,10 @@
       <c r="V93" s="1">
         <v>18000000</v>
       </c>
-      <c r="AC93" s="35" t="s">
+      <c r="AC93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AD93" s="36"/>
+      <c r="AD93" s="64"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9822,7 +9808,7 @@
       <c r="AC94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AD94" s="41">
+      <c r="AD94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -9896,9 +9882,9 @@
       <c r="AC95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AD95" s="42" cm="1">
+      <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.0018</v>
+        <v>1.0293000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9971,7 +9957,7 @@
       <c r="AC96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AD96" s="41">
+      <c r="AD96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10042,12 +10028,12 @@
       <c r="V97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC97" s="39" t="s">
+      <c r="AC97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AD97" s="40">
+      <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>8.4077490000000005E-2</v>
+        <v>8.5261365000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10117,10 +10103,10 @@
       <c r="V98" s="1">
         <v>-1483000000</v>
       </c>
-      <c r="AC98" s="35" t="s">
+      <c r="AC98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AD98" s="36"/>
+      <c r="AD98" s="64"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10264,12 +10250,12 @@
       <c r="V100" s="10">
         <v>-2144000000</v>
       </c>
-      <c r="AC100" s="37" t="s">
+      <c r="AC100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AD100" s="38">
+      <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>0.1320457001574987</v>
+        <v>0.13884257974858166</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10342,9 +10328,9 @@
       <c r="AC101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AD101" s="43" cm="1">
+      <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>71712910000</v>
+        <v>67668200000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10414,12 +10400,12 @@
       <c r="V102" s="10">
         <v>-422000000</v>
       </c>
-      <c r="AC102" s="37" t="s">
+      <c r="AC102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AD102" s="38">
+      <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.86795429984250128</v>
+        <v>0.86115742025141828</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10489,12 +10475,12 @@
       <c r="V103" s="1">
         <v>4516000000</v>
       </c>
-      <c r="AC103" s="39" t="s">
+      <c r="AC103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AD103" s="44">
+      <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>82622910000</v>
+        <v>78578200000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10564,10 +10550,10 @@
       <c r="V104" s="11">
         <v>4094000000</v>
       </c>
-      <c r="AC104" s="35" t="s">
+      <c r="AC104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="36"/>
+      <c r="AD104" s="64"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10595,7 +10581,7 @@
         <v>0.35121853374786882</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:W105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:V105" si="8">(H106/G106)-1</f>
         <v>-0.30327321309285238</v>
       </c>
       <c r="I105" s="15">
@@ -10665,7 +10651,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>7.4560299232559565E-2</v>
+        <v>7.5089917035029291E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10735,33 +10721,33 @@
       <c r="V106" s="1">
         <v>3207000000</v>
       </c>
-      <c r="W106" s="45">
+      <c r="W106" s="41">
         <f>V106*(1+$AD$106)</f>
         <v>3444969575.0786276</v>
       </c>
-      <c r="X106" s="45">
+      <c r="X106" s="41">
         <f t="shared" ref="X106:AA106" si="9">W106*(1+$AD$106)</f>
         <v>3700597247.651207</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="41">
         <f t="shared" si="9"/>
         <v>3975193304.5769</v>
       </c>
-      <c r="Z106" s="45">
+      <c r="Z106" s="41">
         <f t="shared" si="9"/>
         <v>4270165260.1570592</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="41">
         <f t="shared" si="9"/>
         <v>4587025070.7199192</v>
       </c>
-      <c r="AB106" s="46" t="s">
+      <c r="AB106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AC106" s="47" t="s">
+      <c r="AC106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AD106" s="48">
+      <c r="AD106" s="44">
         <f>(SUM(W4:AA4)/5)</f>
         <v>7.4203172771633324E-2</v>
       </c>
@@ -10789,151 +10775,151 @@
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
-      <c r="W107" s="46"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="49">
+      <c r="W107" s="42"/>
+      <c r="X107" s="42"/>
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>94868287122.831711</v>
-      </c>
-      <c r="AB107" s="50" t="s">
+        <v>93865212318.077606</v>
+      </c>
+      <c r="AB107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="51" t="s">
+      <c r="AC107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AD107" s="52">
+      <c r="AD107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="49">
+      <c r="W108" s="45">
         <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
         <v>3444969575.0786276</v>
       </c>
-      <c r="X108" s="49">
+      <c r="X108" s="45">
         <f t="shared" si="10"/>
         <v>3700597247.651207</v>
       </c>
-      <c r="Y108" s="49">
+      <c r="Y108" s="45">
         <f t="shared" si="10"/>
         <v>3975193304.5769</v>
       </c>
-      <c r="Z108" s="49">
+      <c r="Z108" s="45">
         <f>Z107+Z106</f>
         <v>4270165260.1570592</v>
       </c>
-      <c r="AA108" s="49">
+      <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>99455312193.551636</v>
-      </c>
-      <c r="AB108" s="50" t="s">
+        <v>98452237388.797531</v>
+      </c>
+      <c r="AB108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AC108" s="53" t="s">
+      <c r="AC108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AD108" s="54">
+      <c r="AD108" s="50">
         <f>AD105</f>
-        <v>7.4560299232559565E-2</v>
+        <v>7.5089917035029291E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="55" t="s">
+      <c r="W109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="X109" s="56"/>
+      <c r="X109" s="60"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="57" t="s">
+      <c r="W110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="X110" s="43">
+      <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>82235654099.394363</v>
+        <v>81350652689.53952</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="57" t="s">
+      <c r="W111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="X111" s="43">
+      <c r="X111" s="39">
         <f>V40</f>
         <v>4336000000</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="57" t="s">
+      <c r="W112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="X112" s="43">
+      <c r="X112" s="39">
         <f>AD99</f>
         <v>10910000000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="57" t="s">
+      <c r="W113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="X113" s="43">
+      <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>75661654099.394363</v>
+        <v>74776652689.53952</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="57" t="s">
+      <c r="W114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="X114" s="58">
+      <c r="X114" s="52">
         <f>V34*(1+(5*AB16))</f>
         <v>124030035.60176596</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="59" t="s">
+      <c r="W115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="X115" s="60">
+      <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>610.02686754301862</v>
+        <v>602.89148774923706</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="57" t="s">
+      <c r="W116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="X116" s="61" cm="1">
-        <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>578</v>
+      <c r="X116" s="55" cm="1">
+        <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
+        <v>551.4</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="62" t="s">
+      <c r="W117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="X117" s="63">
+      <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>5.5409805437748538E-2</v>
+        <v>9.3383184166189848E-2</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="62" t="s">
+      <c r="W118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="X118" s="64" t="str">
+      <c r="X118" s="58" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="W109:X109"/>
     <mergeCell ref="AC83:AD83"/>
     <mergeCell ref="AC84:AD84"/>
     <mergeCell ref="AC93:AD93"/>
     <mergeCell ref="AC98:AD98"/>
     <mergeCell ref="AC104:AD104"/>
-    <mergeCell ref="W109:X109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/KER.PA" display="ROIC.AI | KER.PA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Kering.xlsx
+++ b/Consumer/Kering.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E65D8-40A5-874F-89F5-2FBF498AC748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C3F92-0432-E146-A8B8-84CBA96DFA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2370,9 +2370,9 @@
     <v>Powered by Refinitiv</v>
     <v>603.6</v>
     <v>427.55</v>
-    <v>1.0293000000000001</v>
-    <v>6</v>
-    <v>1.1001E-2</v>
+    <v>1.0525</v>
+    <v>-10.8</v>
+    <v>-2.1053000000000002E-2</v>
     <v>EUR</v>
     <v>Kering SA is a France-based luxury group. The Group manages the development of a series of renowned Houses in Fashion, Leather Goods and Jewelry: Gucci, Saint Laurent, Bottega Veneta, Balenciaga, Alexander McQueen, Brioni, Boucheron, Pomellato, DoDo, Qeelin, as well as Kering Eyewear. It manufactures and sell, mostly through managed retail stores, an array of products, including leather goods, apparel, accessories, footwear, jewelry among others, for man, woman and child. The Group is active globally.</v>
     <v>47227</v>
@@ -2380,24 +2380,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>40 rue de Sevres, PARIS, ILE-DE-FRANCE, 75007 FR</v>
-    <v>555.4</v>
+    <v>514</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45061.666666666664</v>
+    <v>45100.666666666664</v>
     <v>0</v>
-    <v>543.79999999999995</v>
-    <v>67668200000</v>
+    <v>498</v>
+    <v>63648310000</v>
     <v>Kering SA</v>
     <v>Kering SA</v>
-    <v>547.70000000000005</v>
-    <v>18.802600000000002</v>
-    <v>545.4</v>
-    <v>551.4</v>
+    <v>509.7</v>
+    <v>17.493200000000002</v>
+    <v>513</v>
+    <v>502.2</v>
     <v>124070800</v>
     <v>KER</v>
     <v>Kering SA (XPAR:KER)</v>
-    <v>110479</v>
-    <v>168630</v>
+    <v>192812</v>
+    <v>179500</v>
     <v>1955</v>
   </rv>
   <rv s="2">
@@ -2965,10 +2965,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomRight" activeCell="X98" sqref="X98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4320,15 +4320,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>3.3250552798388284</v>
+        <v>3.1275273942312416</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>18.723907028223575</v>
+        <v>17.611596568898726</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>21.100155908949173</v>
+        <v>19.846682257561586</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.0293000000000001</v>
+        <v>1.0525</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>8.5261365000000006E-2</v>
+        <v>8.6260125000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>0.13884257974858166</v>
+        <v>0.14632842402141358</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>67668200000</v>
+        <v>63648310000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.86115742025141828</v>
+        <v>0.85367157597858645</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>78578200000</v>
+        <v>74558310000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>7.5089917035029291E-2</v>
+        <v>7.5394125702523157E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10781,7 +10781,7 @@
       <c r="Z107" s="42"/>
       <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>93865212318.077606</v>
+        <v>93298586530.542984</v>
       </c>
       <c r="AB107" s="46" t="s">
         <v>148</v>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>98452237388.797531</v>
+        <v>97885611601.262909</v>
       </c>
       <c r="AB108" s="46" t="s">
         <v>144</v>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="AD108" s="50">
         <f>AD105</f>
-        <v>7.5089917035029291E-2</v>
+        <v>7.5394125702523157E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>81350652689.53952</v>
+        <v>80850738959.795883</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>74776652689.53952</v>
+        <v>74276738959.795883</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>602.89148774923706</v>
+        <v>598.86090171160379</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="X116" s="55" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>551.4</v>
+        <v>502.2</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>9.3383184166189848E-2</v>
+        <v>0.19247491380247661</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Kering.xlsx
+++ b/Consumer/Kering.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C3F92-0432-E146-A8B8-84CBA96DFA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B7DAD2-BED5-4B48-8EDA-0FE05689690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2370,34 +2370,34 @@
     <v>Powered by Refinitiv</v>
     <v>603.6</v>
     <v>427.55</v>
-    <v>1.0525</v>
-    <v>-10.8</v>
-    <v>-2.1053000000000002E-2</v>
+    <v>1.0639000000000001</v>
+    <v>-2.9</v>
+    <v>-5.4879999999999998E-3</v>
     <v>EUR</v>
     <v>Kering SA is a France-based luxury group. The Group manages the development of a series of renowned Houses in Fashion, Leather Goods and Jewelry: Gucci, Saint Laurent, Bottega Veneta, Balenciaga, Alexander McQueen, Brioni, Boucheron, Pomellato, DoDo, Qeelin, as well as Kering Eyewear. It manufactures and sell, mostly through managed retail stores, an array of products, including leather goods, apparel, accessories, footwear, jewelry among others, for man, woman and child. The Group is active globally.</v>
-    <v>47227</v>
+    <v>21127</v>
     <v>Euronext Paris</v>
     <v>XPAR</v>
     <v>XPAR</v>
     <v>40 rue de Sevres, PARIS, ILE-DE-FRANCE, 75007 FR</v>
-    <v>514</v>
+    <v>527.29999999999995</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45100.666666666664</v>
+    <v>45149.316747685189</v>
     <v>0</v>
-    <v>498</v>
-    <v>63648310000</v>
+    <v>523.5</v>
+    <v>64144590000</v>
     <v>Kering SA</v>
     <v>Kering SA</v>
-    <v>509.7</v>
-    <v>17.493200000000002</v>
-    <v>513</v>
-    <v>502.2</v>
+    <v>524.79999999999995</v>
+    <v>18.9846</v>
+    <v>528.4</v>
+    <v>525.5</v>
     <v>124070800</v>
     <v>KER</v>
     <v>Kering SA (XPAR:KER)</v>
-    <v>192812</v>
-    <v>179500</v>
+    <v>2547</v>
+    <v>174370</v>
     <v>1955</v>
   </rv>
   <rv s="2">
@@ -2968,7 +2968,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X98" sqref="X98"/>
+      <selection pane="bottomRight" activeCell="Z96" sqref="Z96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4320,15 +4320,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>3.1275273942312416</v>
+        <v>3.1519134194879856</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>17.611596568898726</v>
+        <v>17.748918096292197</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>19.846682257561586</v>
+        <v>20.001431244153416</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.0525</v>
+        <v>1.0639000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>8.6260125000000007E-2</v>
+        <v>8.6750895000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>0.14632842402141358</v>
+        <v>0.14536086333960388</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>63648310000</v>
+        <v>64144590000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.85367157597858645</v>
+        <v>0.85463913666039615</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>74558310000</v>
+        <v>75054590000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>7.5394125702523157E-2</v>
+        <v>7.5885405697066491E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10781,7 +10781,7 @@
       <c r="Z107" s="42"/>
       <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>93298586530.542984</v>
+        <v>92397822776.108215</v>
       </c>
       <c r="AB107" s="46" t="s">
         <v>148</v>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>97885611601.262909</v>
+        <v>96984847846.82814</v>
       </c>
       <c r="AB108" s="46" t="s">
         <v>144</v>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="AD108" s="50">
         <f>AD105</f>
-        <v>7.5394125702523157E-2</v>
+        <v>7.5885405697066491E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>80850738959.795883</v>
+        <v>80056048091.932037</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>74276738959.795883</v>
+        <v>73482048091.932037</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>598.86090171160379</v>
+        <v>592.45365636971394</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="X116" s="55" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>502.2</v>
+        <v>525.5</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>0.19247491380247661</v>
+        <v>0.127409431721625</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
